--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd14-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd14-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.3097613333333</v>
+        <v>0.3197726666666666</v>
       </c>
       <c r="H2">
-        <v>324.929284</v>
+        <v>0.959318</v>
       </c>
       <c r="I2">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="J2">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>2820.946507618631</v>
+        <v>0.01908445911022222</v>
       </c>
       <c r="R2">
-        <v>25388.51856856768</v>
+        <v>0.171760131992</v>
       </c>
       <c r="S2">
-        <v>0.8989788120379498</v>
+        <v>0.002796889168061823</v>
       </c>
       <c r="T2">
-        <v>0.8989788120379497</v>
+        <v>0.002796889168061823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.3097613333333</v>
+        <v>0.3197726666666666</v>
       </c>
       <c r="H3">
-        <v>324.929284</v>
+        <v>0.959318</v>
       </c>
       <c r="I3">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="J3">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>35.76630211026978</v>
+        <v>0.1055960761228889</v>
       </c>
       <c r="R3">
-        <v>321.896718992428</v>
+        <v>0.9503646851059999</v>
       </c>
       <c r="S3">
-        <v>0.01139799981858698</v>
+        <v>0.0154754462671539</v>
       </c>
       <c r="T3">
-        <v>0.01139799981858698</v>
+        <v>0.01547544626715389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.3097613333333</v>
+        <v>0.3197726666666666</v>
       </c>
       <c r="H4">
-        <v>324.929284</v>
+        <v>0.959318</v>
       </c>
       <c r="I4">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="J4">
-        <v>0.9760647858278649</v>
+        <v>0.1074590987069417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>206.1252815813187</v>
+        <v>0.6085622398873333</v>
       </c>
       <c r="R4">
-        <v>1855.127534231868</v>
+        <v>5.477060158986</v>
       </c>
       <c r="S4">
-        <v>0.06568797397132817</v>
+        <v>0.08918676327172596</v>
       </c>
       <c r="T4">
-        <v>0.06568797397132817</v>
+        <v>0.08918676327172596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>6.480752000000001</v>
       </c>
       <c r="I5">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057992</v>
       </c>
       <c r="J5">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057991</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>56.26410305678223</v>
+        <v>0.1289266401208889</v>
       </c>
       <c r="R5">
-        <v>506.37692751104</v>
+        <v>1.160339761088</v>
       </c>
       <c r="S5">
-        <v>0.0179302359650433</v>
+        <v>0.01889461583092884</v>
       </c>
       <c r="T5">
-        <v>0.0179302359650433</v>
+        <v>0.01889461583092884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.480752000000001</v>
       </c>
       <c r="I6">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057992</v>
       </c>
       <c r="J6">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057991</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>0.7133630157315556</v>
@@ -818,10 +818,10 @@
         <v>6.420267141584</v>
       </c>
       <c r="S6">
-        <v>0.0002273344193880267</v>
+        <v>0.1045456557124438</v>
       </c>
       <c r="T6">
-        <v>0.0002273344193880267</v>
+        <v>0.1045456557124438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.480752000000001</v>
       </c>
       <c r="I7">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057992</v>
       </c>
       <c r="J7">
-        <v>0.0194677245922947</v>
+        <v>0.7259488187057991</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>4.111192485989333</v>
@@ -880,10 +880,10 @@
         <v>37.00073237390401</v>
       </c>
       <c r="S7">
-        <v>0.001310154207863373</v>
+        <v>0.6025085471624265</v>
       </c>
       <c r="T7">
-        <v>0.001310154207863373</v>
+        <v>0.6025085471624264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>1.487215</v>
       </c>
       <c r="I8">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872592</v>
       </c>
       <c r="J8">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872591</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>12.91159081964445</v>
+        <v>0.02958632471777778</v>
       </c>
       <c r="R8">
-        <v>116.2043173768</v>
+        <v>0.26627692246</v>
       </c>
       <c r="S8">
-        <v>0.004114663835424017</v>
+        <v>0.004335971517347808</v>
       </c>
       <c r="T8">
-        <v>0.004114663835424017</v>
+        <v>0.004335971517347807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.487215</v>
       </c>
       <c r="I9">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872592</v>
       </c>
       <c r="J9">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872591</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
         <v>0.1637038691561111</v>
@@ -1004,10 +1004,10 @@
         <v>1.473334822405</v>
       </c>
       <c r="S9">
-        <v>5.216912459081356E-05</v>
+        <v>0.02399133115422132</v>
       </c>
       <c r="T9">
-        <v>5.216912459081356E-05</v>
+        <v>0.02399133115422131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.487215</v>
       </c>
       <c r="I10">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872592</v>
       </c>
       <c r="J10">
-        <v>0.004467489579840358</v>
+        <v>0.1665920825872591</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>0.9434440838116667</v>
@@ -1066,10 +1066,10 @@
         <v>8.490996754305</v>
       </c>
       <c r="S10">
-        <v>0.0003006566198255274</v>
+        <v>0.1382647799156901</v>
       </c>
       <c r="T10">
-        <v>0.0003006566198255274</v>
+        <v>0.13826477991569</v>
       </c>
     </row>
   </sheetData>
